--- a/Results_strong_scaling.xlsx
+++ b/Results_strong_scaling.xlsx
@@ -23,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t xml:space="preserve">1(inner)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2(inner)</t>
   </si>
   <si>
     <t xml:space="preserve">1(outer)</t>
@@ -40,6 +37,24 @@
     <t xml:space="preserve">Images</t>
   </si>
   <si>
+    <t xml:space="preserve">Oversubscription Heat Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of threads for auto configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2(inner)</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
 </sst>
@@ -47,10 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,6 +91,24 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -86,12 +121,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF70AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFF950E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,8 +181,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,26 +247,26 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF997300"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF4B1F6F"/>
+      <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -180,22 +281,22 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF636363"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF9E480E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF264478"/>
@@ -205,7 +306,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -217,21 +318,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Chart Title</a:t>
+              <a:t>Strong Scaling Testing Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -240,8 +335,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -259,27 +354,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -287,43 +380,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$2:$J$2</c:f>
               <c:numCache>
@@ -358,7 +450,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -377,27 +469,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -405,43 +495,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$3:$J$3</c:f>
               <c:numCache>
@@ -476,7 +565,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -495,27 +584,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -523,43 +610,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$4:$J$4</c:f>
               <c:numCache>
@@ -594,7 +680,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -613,27 +699,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -641,43 +725,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$5:$J$5</c:f>
               <c:numCache>
@@ -712,7 +795,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -731,27 +814,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="7e0021"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="7e0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="7e0021"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -759,43 +840,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$6:$J$6</c:f>
               <c:numCache>
@@ -830,7 +910,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -849,27 +929,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70ad47"/>
+              <a:srgbClr val="83caff"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -877,43 +955,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$7:$J$7</c:f>
               <c:numCache>
@@ -948,7 +1025,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -967,27 +1044,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="264478"/>
+              <a:srgbClr val="314004"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="264478"/>
+                <a:srgbClr val="314004"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="264478"/>
+                <a:srgbClr val="314004"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -995,43 +1070,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$8:$J$8</c:f>
               <c:numCache>
@@ -1066,7 +1140,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1085,27 +1159,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9e480e"/>
+              <a:srgbClr val="aecf00"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="aecf00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="aecf00"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1113,43 +1185,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$9:$J$9</c:f>
               <c:numCache>
@@ -1184,7 +1255,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1203,27 +1274,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="636363"/>
+              <a:srgbClr val="4b1f6f"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="636363"/>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="636363"/>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1231,43 +1300,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$10:$J$10</c:f>
               <c:numCache>
@@ -1302,7 +1370,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1321,27 +1389,25 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="997300"/>
+              <a:srgbClr val="ff950e"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="997300"/>
+                <a:srgbClr val="ff950e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="997300"/>
+                <a:srgbClr val="ff950e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1349,43 +1415,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_omp_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_omp_strong!$B$11:$J$11</c:f>
               <c:numCache>
@@ -1420,39 +1485,36 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59575138"/>
-        <c:axId val="69657062"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="59575138"/>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="45773674"/>
+        <c:axId val="46814087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45773674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1460,21 +1522,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69657062"/>
+        <c:crossAx val="46814087"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="69657062"/>
+        <c:axId val="46814087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,24 +1543,22 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1507,28 +1566,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59575138"/>
+        <c:crossAx val="45773674"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1541,11 +1599,8 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1558,17 +1613,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1580,21 +1632,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Chart Title</a:t>
+              <a:t>Strong Scaling Testing Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1603,8 +1649,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1622,27 +1668,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1650,43 +1695,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$2:$J$2</c:f>
               <c:numCache>
@@ -1721,7 +1765,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1740,27 +1784,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1768,43 +1811,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$3:$J$3</c:f>
               <c:numCache>
@@ -1839,7 +1881,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1858,27 +1900,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1886,43 +1927,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$4:$J$4</c:f>
               <c:numCache>
@@ -1957,7 +1997,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1976,27 +2016,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2004,43 +2043,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$5:$J$5</c:f>
               <c:numCache>
@@ -2075,7 +2113,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2094,27 +2132,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="7e0021"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="7e0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="7e0021"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2122,43 +2159,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$6:$J$6</c:f>
               <c:numCache>
@@ -2193,7 +2229,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2212,27 +2248,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70ad47"/>
+              <a:srgbClr val="83caff"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2240,43 +2275,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$7:$J$7</c:f>
               <c:numCache>
@@ -2311,7 +2345,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2330,27 +2364,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="264478"/>
+              <a:srgbClr val="314004"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="264478"/>
+                <a:srgbClr val="314004"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="264478"/>
+                <a:srgbClr val="314004"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2358,43 +2391,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$8:$J$8</c:f>
               <c:numCache>
@@ -2429,7 +2461,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2448,27 +2480,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9e480e"/>
+              <a:srgbClr val="aecf00"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="aecf00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="aecf00"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2476,43 +2507,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$9:$J$9</c:f>
               <c:numCache>
@@ -2547,7 +2577,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2566,27 +2596,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="636363"/>
+              <a:srgbClr val="4b1f6f"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="636363"/>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="636363"/>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2594,43 +2623,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$10:$J$10</c:f>
               <c:numCache>
@@ -2665,7 +2693,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2684,27 +2712,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="997300"/>
+              <a:srgbClr val="ff950e"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="997300"/>
+                <a:srgbClr val="ff950e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="997300"/>
+                <a:srgbClr val="ff950e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2712,43 +2739,42 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>omp_tbb_strong!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1(inner)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>omp_tbb_strong!$B$11:$J$11</c:f>
               <c:numCache>
@@ -2783,39 +2809,36 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28735122"/>
-        <c:axId val="60364464"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="28735122"/>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="59016678"/>
+        <c:axId val="49208956"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59016678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2823,21 +2846,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60364464"/>
+        <c:crossAx val="49208956"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="60364464"/>
+        <c:axId val="49208956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,24 +2867,22 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2870,28 +2890,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28735122"/>
+        <c:crossAx val="59016678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,11 +2923,8 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -2921,17 +2937,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4149,11 +4162,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27696072"/>
-        <c:axId val="71085168"/>
+        <c:axId val="62347591"/>
+        <c:axId val="34686891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27696072"/>
+        <c:axId val="62347591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4182,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4195,12 +4208,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71085168"/>
+        <c:crossAx val="34686891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71085168"/>
+        <c:axId val="34686891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4255,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27696072"/>
+        <c:crossAx val="62347591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4298,25 +4311,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:colOff>384840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6742800" y="476640"/>
-        <a:ext cx="10910520" cy="8714880"/>
+        <a:off x="6312240" y="97200"/>
+        <a:ext cx="11194560" cy="6295320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4333,25 +4346,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>204840</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6742800" y="476640"/>
-        <a:ext cx="10910520" cy="8714880"/>
+        <a:off x="6683760" y="123480"/>
+        <a:ext cx="12477600" cy="8188920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4375,9 +4388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
+      <xdr:colOff>513360</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4385,8 +4398,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6742800" y="485640"/>
-        <a:ext cx="10910520" cy="8714880"/>
+        <a:off x="6735600" y="485640"/>
+        <a:ext cx="10899720" cy="8714520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4404,10 +4417,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="B11:J11 G18"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4419,8 +4432,8 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>4</v>
@@ -4446,7 +4459,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3273.41</v>
@@ -4498,13 +4511,13 @@
       <c r="G3" s="0" t="n">
         <v>152.7</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>103.91</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>89.22</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>85.65</v>
       </c>
     </row>
@@ -4527,16 +4540,16 @@
       <c r="F4" s="0" t="n">
         <v>131.71</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>85.25</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>82.15</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>79.75</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <v>80.41</v>
       </c>
     </row>
@@ -4559,16 +4572,16 @@
       <c r="F5" s="0" t="n">
         <v>96.1</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>79.42</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>85.44</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>84.79</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <v>81.28</v>
       </c>
     </row>
@@ -4588,19 +4601,19 @@
       <c r="E6" s="0" t="n">
         <v>90.59</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>80.43</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>82.71</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>90.69</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>87.76</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="2" t="n">
         <v>85.61</v>
       </c>
     </row>
@@ -4614,25 +4627,25 @@
       <c r="C7" s="0" t="n">
         <v>116.27</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>79.79</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>77.08</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>78.6</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>87.18</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>89.12</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>87.65</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>87.1</v>
       </c>
     </row>
@@ -4643,28 +4656,28 @@
       <c r="B8" s="0" t="n">
         <v>113.25</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>78.21</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>77.17</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>79.77</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>81.81</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>84.09</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>84.01</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>85.06</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>84.84</v>
       </c>
     </row>
@@ -4672,31 +4685,31 @@
       <c r="A9" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="4" t="n">
         <v>90.63</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>78.4</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>78.36</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>80.56</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>81.13</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <v>81.87</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="3" t="n">
         <v>82.36</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>85.24</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>83.57</v>
       </c>
     </row>
@@ -4704,75 +4717,550 @@
       <c r="A10" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>93.88</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>80.39</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>79.21</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>80.64</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>82.21</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <v>80.12</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>82.64</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>84.02</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="3" t="n">
         <v>85.66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>78.83</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>78.83</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>128</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <f aca="false">B20*A21/54</f>
+        <v>0.0185185185185185</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <f aca="false">C20*A21/54</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">D20*A21/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <f aca="false">E20*A21/54</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <f aca="false">F20*A21/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">G20*A21/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">H20*A21/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <f aca="false">I20*A21/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <f aca="false">J20*A21/54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <f aca="false">B20*A22/54</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <f aca="false">C20*A22/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">D20*A22/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <f aca="false">E20*A22/54</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <f aca="false">F20*A22/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">G20*A22/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">H20*A22/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <f aca="false">I20*A22/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <f aca="false">J20*A22/54</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <f aca="false">B20*A23/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <f aca="false">C20*A23/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">D20*A23/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <f aca="false">E20*A23/54</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <f aca="false">F20*A23/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">G20*A23/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">H20*A23/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <f aca="false">I20*A23/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <f aca="false">J20*A23/54</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <f aca="false">B20*A24/54</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <f aca="false">C20*A24/54</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">D20*A24/54</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <f aca="false">E20*A24/54</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <f aca="false">F20*A24/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">G20*A24/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">H20*A24/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <f aca="false">I20*A24/54</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <f aca="false">J20*A24/54</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <f aca="false">B20*A25/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <f aca="false">C20*A25/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <f aca="false">D20*A25/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <f aca="false">E20*A25/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <f aca="false">F20*A25/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">G20*A25/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">H20*A25/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <f aca="false">I20*A25/54</f>
+        <v>7.11111111111111</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <f aca="false">J20*A25/54</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <f aca="false">B20*A26/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <f aca="false">C20*A26/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">D20*A26/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <f aca="false">E20*A26/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <f aca="false">F20*A26/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">G20*A26/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">H20*A26/54</f>
+        <v>9.48148148148148</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <f aca="false">I20*A26/54</f>
+        <v>14.2222222222222</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <f aca="false">J20*A26/54</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <f aca="false">B20*A27/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <f aca="false">C20*A27/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">D20*A27/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">E20*A27/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">F20*A27/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">G20*A27/54</f>
+        <v>9.48148148148148</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">H20*A27/54</f>
+        <v>18.962962962963</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <f aca="false">I20*A27/54</f>
+        <v>28.4444444444444</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <f aca="false">J20*A27/54</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <f aca="false">B20*A28/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <f aca="false">C20*A28/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <f aca="false">D20*A28/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <f aca="false">E20*A28/54</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <f aca="false">F20*A28/54</f>
+        <v>7.11111111111111</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">G20*A28/54</f>
+        <v>14.2222222222222</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">H20*A28/54</f>
+        <v>28.4444444444444</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <f aca="false">I20*A28/54</f>
+        <v>42.6666666666667</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <f aca="false">J20*A28/54</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <f aca="false">B20*A29/54</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <f aca="false">C20*A29/54</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <f aca="false">D20*A29/54</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <f aca="false">E20*A29/54</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <f aca="false">F20*A29/54</f>
+        <v>8</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">G20*A29/54</f>
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">H20*A29/54</f>
+        <v>32</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <f aca="false">I20*A29/54</f>
+        <v>48</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <f aca="false">J20*A29/54</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A32:E32"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4789,10 +5277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4804,8 +5292,8 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>4</v>
@@ -4831,33 +5319,33 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>1117.9</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="6" t="n">
         <v>616.65</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="6" t="n">
         <v>400.62</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="6" t="n">
         <v>333.68</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="6" t="n">
         <v>287.11</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="6" t="n">
         <v>212.35</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="6" t="n">
         <v>161.29</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="6" t="n">
         <v>141.19</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="6" t="n">
         <v>135.63</v>
       </c>
     </row>
@@ -4865,31 +5353,31 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="6" t="n">
         <v>560.22</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="6" t="n">
         <v>311.29</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="6" t="n">
         <v>207.12</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="6" t="n">
         <v>170.38</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="6" t="n">
         <v>146.02</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="6" t="n">
         <v>109.65</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="9" t="n">
         <v>86.41</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="9" t="n">
         <v>82.65</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="9" t="n">
         <v>81.81</v>
       </c>
     </row>
@@ -4897,31 +5385,31 @@
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="6" t="n">
         <v>284.4</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="6" t="n">
         <v>165.64</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="6" t="n">
         <v>107.15</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="6" t="n">
         <v>87.66</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="6" t="n">
         <v>75.07</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="9" t="n">
         <v>58.81</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="10" t="n">
         <v>60.29</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="10" t="n">
         <v>58.63</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="10" t="n">
         <v>59.92</v>
       </c>
     </row>
@@ -4929,31 +5417,31 @@
       <c r="A5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="6" t="n">
         <v>203.7</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="6" t="n">
         <v>116.34</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="6" t="n">
         <v>74.3</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="6" t="n">
         <v>63.08</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="6" t="n">
         <v>54.2</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="9" t="n">
         <v>47.69</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="10" t="n">
         <v>53.66</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="10" t="n">
         <v>53.03</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="10" t="n">
         <v>52.78</v>
       </c>
     </row>
@@ -4961,31 +5449,31 @@
       <c r="A6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="6" t="n">
         <v>151.23</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="6" t="n">
         <v>85.56</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="6" t="n">
         <v>55.59</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="6" t="n">
         <v>47.46</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="9" t="n">
         <v>42.83</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="10" t="n">
         <v>44.12</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="10" t="n">
         <v>49.34</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="10" t="n">
         <v>48.97</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="10" t="n">
         <v>49.56</v>
       </c>
     </row>
@@ -4993,31 +5481,31 @@
       <c r="A7" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="6" t="n">
         <v>78.77</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="6" t="n">
         <v>44.25</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="9" t="n">
         <v>34.1</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="9" t="n">
         <v>35.96</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="10" t="n">
         <v>39.21</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="11" t="n">
         <v>46.38</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="11" t="n">
         <v>45.71</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="11" t="n">
         <v>45.87</v>
       </c>
     </row>
@@ -5025,31 +5513,31 @@
       <c r="A8" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="6" t="n">
         <v>40.54</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="9" t="n">
         <v>29.73</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="10" t="n">
         <v>32.23</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="10" t="n">
         <v>32.96</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="10" t="n">
         <v>33.62</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="11" t="n">
         <v>36.88</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="11" t="n">
         <v>44.61</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="11" t="n">
         <v>44.63</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="11" t="n">
         <v>44.94</v>
       </c>
     </row>
@@ -5057,31 +5545,31 @@
       <c r="A9" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="12" t="n">
         <v>33.38</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="9" t="n">
         <v>30.82</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="10" t="n">
         <v>32.02</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="10" t="n">
         <v>32.33</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="10" t="n">
         <v>33.62</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="11" t="n">
         <v>37.13</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="11" t="n">
         <v>44.76</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="11" t="n">
         <v>44.96</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="11" t="n">
         <v>44.74</v>
       </c>
     </row>
@@ -5089,75 +5577,546 @@
       <c r="A10" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="9" t="n">
         <v>33.76</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="9" t="n">
         <v>30.81</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="10" t="n">
         <v>32.48</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="10" t="n">
         <v>32.55</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="10" t="n">
         <v>33.43</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="11" t="n">
         <v>37.31</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="11" t="n">
         <v>45.05</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="11" t="n">
         <v>44.99</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="11" t="n">
         <v>45.38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="9" t="n">
         <v>31.65</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="9" t="n">
         <v>31.65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>128</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <f aca="false">B19*A20/54</f>
+        <v>0.0185185185185185</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <f aca="false">C19*A20/54</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">D19*A20/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <f aca="false">E19*A20/54</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <f aca="false">F19*A20/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">G19*A20/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">H19*A20/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <f aca="false">I19*A20/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <f aca="false">J19*A20/54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <f aca="false">B19*A21/54</f>
+        <v>0.037037037037037</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <f aca="false">C19*A21/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">D19*A21/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <f aca="false">E19*A21/54</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <f aca="false">F19*A21/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">G19*A21/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">H19*A21/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <f aca="false">I19*A21/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <f aca="false">J19*A21/54</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <f aca="false">B19*A22/54</f>
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <f aca="false">C19*A22/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">D19*A22/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <f aca="false">E19*A22/54</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <f aca="false">F19*A22/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">G19*A22/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">H19*A22/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <f aca="false">I19*A22/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <f aca="false">J19*A22/54</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <f aca="false">B19*A23/54</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <f aca="false">C19*A23/54</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">D19*A23/54</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <f aca="false">E19*A23/54</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <f aca="false">F19*A23/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">G19*A23/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">H19*A23/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <f aca="false">I19*A23/54</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <f aca="false">J19*A23/54</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <f aca="false">B19*A24/54</f>
+        <v>0.148148148148148</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <f aca="false">C19*A24/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">D19*A24/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <f aca="false">E19*A24/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <f aca="false">F19*A24/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">G19*A24/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">H19*A24/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <f aca="false">I19*A24/54</f>
+        <v>7.11111111111111</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <f aca="false">J19*A24/54</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <f aca="false">B19*A25/54</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <f aca="false">C19*A25/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <f aca="false">D19*A25/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <f aca="false">E19*A25/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <f aca="false">F19*A25/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">G19*A25/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">H19*A25/54</f>
+        <v>9.48148148148148</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <f aca="false">I19*A25/54</f>
+        <v>14.2222222222222</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <f aca="false">J19*A25/54</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <f aca="false">B19*A26/54</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <f aca="false">C19*A26/54</f>
+        <v>1.18518518518519</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">D19*A26/54</f>
+        <v>2.37037037037037</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <f aca="false">E19*A26/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <f aca="false">F19*A26/54</f>
+        <v>4.74074074074074</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">G19*A26/54</f>
+        <v>9.48148148148148</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">H19*A26/54</f>
+        <v>18.962962962963</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <f aca="false">I19*A26/54</f>
+        <v>28.4444444444444</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <f aca="false">J19*A26/54</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <f aca="false">B19*A27/54</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <f aca="false">C19*A27/54</f>
+        <v>1.77777777777778</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">D19*A27/54</f>
+        <v>3.55555555555556</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">E19*A27/54</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">F19*A27/54</f>
+        <v>7.11111111111111</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">G19*A27/54</f>
+        <v>14.2222222222222</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">H19*A27/54</f>
+        <v>28.4444444444444</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <f aca="false">I19*A27/54</f>
+        <v>42.6666666666667</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <f aca="false">J19*A27/54</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <f aca="false">B19*A28/54</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <f aca="false">C19*A28/54</f>
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <f aca="false">D19*A28/54</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <f aca="false">E19*A28/54</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <f aca="false">F19*A28/54</f>
+        <v>8</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">G19*A28/54</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">H19*A28/54</f>
+        <v>32</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <f aca="false">I19*A28/54</f>
+        <v>48</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <f aca="false">J19*A28/54</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:E31"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5176,8 +6135,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="B11:J11 A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5190,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>4</v>
@@ -5216,7 +6175,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8.14</v>
@@ -5504,7 +6463,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.83</v>
@@ -5554,7 +6513,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="B11:J11 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
